--- a/biology/Zoologie/Agraulis_vanillae/Agraulis_vanillae.xlsx
+++ b/biology/Zoologie/Agraulis_vanillae/Agraulis_vanillae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agraulis vanillae est une espèce américaine de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Heliconiinae.
 Elle est l'unique représentante du genre monotypique Agraulis.
@@ -514,15 +526,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Papillon
-L'imago d’Agraulis vanillae est un grand papillon de couleur de fond orange vif, orné de taches brunes et de fins cercles brun-noir en bordure des ailes postérieures. Le revers est caractéristique, orange avec de larges taches nacrées blanc argenté[1].
-La sous-espèce incarnata présente une suffusion rouge aux ailes antérieures[2].
+          <t>Papillon</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago d’Agraulis vanillae est un grand papillon de couleur de fond orange vif, orné de taches brunes et de fins cercles brun-noir en bordure des ailes postérieures. Le revers est caractéristique, orange avec de larges taches nacrées blanc argenté.
+La sous-espèce incarnata présente une suffusion rouge aux ailes antérieures.
 			Vue dorsale, Arizona.
 			Vue latérale.
 			Vue dorsale, Guadeloupe.
 			Accouplement.
-Chenille
-La chenille, orange cuivré, porte de longues épines noires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agraulis_vanillae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agraulis_vanillae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille, orange cuivré, porte de longues épines noires.
 			Œuf.
 			Chenille.
 			Chrysalide.
@@ -530,41 +582,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Agraulis_vanillae</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agraulis_vanillae</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole toute l'année jusques dans le sud de la Californie et du Texas. Plus au nord, il n'est visible que de janvier à novembre[3].
-C'est un migrateur occasionnel, et son nom anglais de Gulf fritillary vient de ses traversées du golfe du Mexique[réf. souhaitée].
-Plantes hôtes
-Les plantes hôtes de la chenille sont des Passiflores, notamment Passiflora auriculata, P. costaricensis, P. edulis, P. foetida, P. incarnata, P. ligularis, P. quadrangularis, P. suberosa et P. vitifolia[4],[1],[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -586,13 +603,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce est répandue dans le Sud de l'Amérique du Nord, aux Antilles, en Amérique centrale et en Amérique du Sud[4].
-La sous-espèce Agraulis vanillae vanillae est très commune à la Martinique, tandis qu’Agraulis vanillae insularis l'est à la Guadeloupe[5],[1].
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année jusques dans le sud de la Californie et du Texas. Plus au nord, il n'est visible que de janvier à novembre.
+C'est un migrateur occasionnel, et son nom anglais de Gulf fritillary vient de ses traversées du golfe du Mexique[réf. souhaitée].
 </t>
         </is>
       </c>
@@ -618,15 +641,123 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Passiflores, notamment Passiflora auriculata, P. costaricensis, P. edulis, P. foetida, P. incarnata, P. ligularis, P. quadrangularis, P. suberosa et P. vitifolia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agraulis_vanillae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agraulis_vanillae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est répandue dans le Sud de l'Amérique du Nord, aux Antilles, en Amérique centrale et en Amérique du Sud.
+La sous-espèce Agraulis vanillae vanillae est très commune à la Martinique, tandis qu’Agraulis vanillae insularis l'est à la Guadeloupe,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agraulis_vanillae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agraulis_vanillae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Agraulis vanillae a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Papilio vanillae[6],[4].
-Elle est l'espèce type et unique espèce actuelle du genre Agraulis, lequel a été décrit en 1835 par les entomologistes français Jean Baptiste Boisduval et américain John Lawrence LeConte[4].
-Sous-espèces
-Plusieurs sous-espèces ont été décrites[4] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Agraulis vanillae a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Papilio vanillae,.
+Elle est l'espèce type et unique espèce actuelle du genre Agraulis, lequel a été décrit en 1835 par les entomologistes français Jean Baptiste Boisduval et américain John Lawrence LeConte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agraulis_vanillae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agraulis_vanillae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Plusieurs sous-espèces ont été décrites :
 Agraulis vanillae vanillae
 Agraulis vanillae lucina C. &amp; R. Felder, 1862 — au Pérou.
 Agraulis vanillae insularis Maynard, 1889 — aux Antilles et aux Bahamas.
@@ -638,62 +769,66 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Agraulis_vanillae</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agraulis_vanillae</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agraulis_vanillae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agraulis_vanillae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En anglais : Gulf fritillary (et Galapagos fritillary pour la sous-espèce A. v. galapagensis[4]).
-En espagnol : Espejitos, Alalarga vanillae[7].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Agraulis_vanillae</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agraulis_vanillae</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>En anglais : Gulf fritillary (et Galapagos fritillary pour la sous-espèce A. v. galapagensis).
+En espagnol : Espejitos, Alalarga vanillae.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Agraulis_vanillae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agraulis_vanillae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon figure sur une émission de Cuba de 1995 (valeur faciale : 10 c.).
 </t>
